--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL374_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL374_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\# OOI_Asset_Management\CP_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3576" yWindow="3144" windowWidth="23256" windowHeight="9384" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="3570" yWindow="3150" windowWidth="23250" windowHeight="9390" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Ref Des</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>N00727</t>
+  </si>
+  <si>
+    <t>CC_bsipar_par_scaling</t>
   </si>
 </sst>
 </file>
@@ -826,17 +829,17 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="9" width="17" customWidth="1"/>
     <col min="10" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="31.77734375" customWidth="1"/>
+    <col min="12" max="12" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
@@ -874,7 +877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -935,22 +938,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="8" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -976,7 +979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -1011,7 +1014,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1046,7 +1049,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1081,7 +1084,7 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1116,7 +1119,7 @@
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="10"/>
@@ -1135,7 +1138,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
@@ -1165,7 +1168,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1195,7 +1198,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1225,7 +1228,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1255,7 +1258,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="10"/>
@@ -1269,7 +1272,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1295,7 +1298,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="10"/>
@@ -1309,7 +1312,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
@@ -1335,7 +1338,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="10"/>
@@ -1349,7 +1352,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -1368,14 +1371,18 @@
       <c r="F16" s="14">
         <v>50157</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
+      <c r="G16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="8">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="10"/>
@@ -1389,7 +1396,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
@@ -1413,7 +1420,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="10"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL374_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL374_00001.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Ref Des</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>CC_bsipar_par_scaling</t>
+  </si>
+  <si>
+    <t>OL000351</t>
   </si>
 </sst>
 </file>
@@ -826,7 +829,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,7 +1412,9 @@
       <c r="D18" s="10">
         <v>1</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
       <c r="F18" s="14">
         <v>374</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL374_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL374_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="3150" windowWidth="23250" windowHeight="9390" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="3580" yWindow="3160" windowWidth="23260" windowHeight="9400" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$79</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$360</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -582,7 +577,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -617,7 +612,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -828,21 +823,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="9" width="17" customWidth="1"/>
     <col min="10" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="31.7109375" customWidth="1"/>
+    <col min="12" max="12" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
@@ -880,7 +875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -894,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="20">
-        <v>41752</v>
+        <v>41745</v>
       </c>
       <c r="F2" s="6">
         <v>0.6875</v>
@@ -941,22 +936,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="28">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -982,7 +977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -1017,7 +1012,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1052,7 +1047,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1087,7 +1082,7 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1122,7 +1117,7 @@
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="10"/>
@@ -1141,7 +1136,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="1" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
@@ -1171,7 +1166,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1201,7 +1196,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="1" customFormat="1">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1231,7 +1226,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="1" customFormat="1">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1261,7 +1256,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="1" customFormat="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="10"/>
@@ -1275,7 +1270,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="1" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1301,7 +1296,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="1" customFormat="1">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="10"/>
@@ -1315,7 +1310,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="1" customFormat="1">
       <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
@@ -1341,7 +1336,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="1" customFormat="1">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="10"/>
@@ -1355,7 +1350,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="1" customFormat="1">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -1385,7 +1380,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="1" customFormat="1">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="10"/>
@@ -1399,7 +1394,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="1" customFormat="1">
       <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
@@ -1425,7 +1420,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="1" customFormat="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="10"/>
